--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/65_Rize_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/65_Rize_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31D04910-F713-4690-AEB7-C0F1A246B43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F93549C3-FA14-4553-83CB-D09FD39D4C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{2A9699AF-F46E-4A37-B940-69DA0AD22894}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{87EBB066-CE56-4C3C-8410-C0807629E716}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -825,13 +825,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{6EECF6D1-A59C-45A5-985B-B886C7D93D55}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{F4B46646-B7DE-4719-A22C-5AE4946B551B}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{83C7049C-7B44-4EC9-98C0-562497873E94}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{F2DC8108-F484-43A4-A25D-3C9116E7BA7E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{2BDA022C-657A-40B2-BD9B-6E164FB19B06}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{3F1FAA57-6A18-41A7-8280-2D8749A5F8AD}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{ACA84926-0162-47EF-8D5F-9A5FFF574FA3}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{3C62E9AB-589A-463A-BDDC-521349A581AD}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{155069EF-D079-4F9C-A8FF-1A14384F9148}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{1B19D5F3-5906-438C-9678-AC0948790C83}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{FB3FE52B-DC04-4828-AF69-DFDB53E97297}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{8082BA86-2F7B-409A-9991-6CFB0C861897}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{0C44FB41-6C9F-45EF-AF90-4A2F32E6B1FA}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{F0CC7608-8AF8-4DF3-A31B-C29F22A84509}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1201,7 +1201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979A2A56-2C49-4208-B665-F91DD8ADD37B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893E40E4-4E7D-462A-BD63-362B9693CFD7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2478,7 +2478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C320F8E3-FDB7-4FB4-8B2A-0F98181DBDB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384957B8-5711-4D8D-B937-C38B65973D45}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3759,7 +3759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B976D6E5-88B4-4E3B-B4F7-E9406EE1C148}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CE58AE-450D-464B-8000-337D8AA56595}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5038,7 +5038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1153F124-00AF-4D74-8D44-6BA965849946}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC80577-917D-4ADB-BF0F-EA6118B3F05C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6317,7 +6317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64708E8-5112-4296-B2BD-B1EC7E314AE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4322CC7D-CA34-46DA-9C03-9F780CAB11AD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7594,7 +7594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB2C17D-ADD3-4816-A0A6-252B56D86593}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F80EFEF-837E-4B5C-93DD-A5692F54E56B}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
